--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D35AB1-3284-425D-BB5C-7EEB77C50705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B02EF-036E-4BF5-845B-CEFB8C0F3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -326,20 +326,18 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>60010101,60010200,60010300,60010400,60010500,60010600</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>60030011,60030020,60030030,60030040,60030050,60030060</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>101,102,103</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>201,202,203</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>52011102,52011201,52011301</t>
+  </si>
+  <si>
+    <t>51011102,51011201,51011301</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2096,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="34" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3217,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="AD6" s="7">
-        <v>60000321</v>
+        <v>50000101</v>
       </c>
       <c r="AE6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,7 +3235,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
         <v>3750</v>
@@ -3309,13 +3307,13 @@
         <v>4</v>
       </c>
       <c r="AD7" s="7">
-        <v>60000331</v>
+        <v>50000201</v>
       </c>
       <c r="AE7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B02EF-036E-4BF5-845B-CEFB8C0F3BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38090223-F43B-485A-A973-D730005506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2068,7 +2068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2112,6 +2112,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2833,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AF7"/>
+  <dimension ref="C1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3158,13 +3161,13 @@
         <v>75</v>
       </c>
       <c r="K6" s="6">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L6" s="6">
         <v>75</v>
       </c>
       <c r="M6" s="6">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N6" s="6">
         <v>4</v>
@@ -3188,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="7">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="V6" s="7">
         <v>12</v>
@@ -3203,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="7">
         <v>4</v>
@@ -3250,13 +3253,13 @@
         <v>75</v>
       </c>
       <c r="K7" s="6">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L7" s="6">
         <v>75</v>
       </c>
       <c r="M7" s="6">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N7" s="6">
         <v>5</v>
@@ -3280,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="V7" s="7">
         <v>12</v>
@@ -3289,10 +3292,10 @@
         <v>12</v>
       </c>
       <c r="X7" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="7">
         <v>4</v>
@@ -3301,10 +3304,10 @@
         <v>4</v>
       </c>
       <c r="AB7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD7" s="7">
         <v>50000201</v>
@@ -3315,6 +3318,34 @@
       <c r="AF7" s="12" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+    </row>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38090223-F43B-485A-A973-D730005506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93ED4D9-4CF3-48B1-9698-754C219DF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,6 @@
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2838,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3206,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="7">
         <v>4</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93ED4D9-4CF3-48B1-9698-754C219DF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE64FB-9B42-4306-B911-BFA21866D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3253,7 +3253,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="6">
         <v>0.05</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE64FB-9B42-4306-B911-BFA21866D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BCA4A-552F-4908-AF56-37E5F8EF8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3161,7 +3161,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="6">
         <v>0.05</v>
@@ -3253,7 +3253,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" s="6">
         <v>0.05</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30BCA4A-552F-4908-AF56-37E5F8EF8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1966712E-8163-4017-8B5B-230C597BBA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2830,7 +2830,7 @@
   <dimension ref="C1:AF17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3229,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>3750</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1966712E-8163-4017-8B5B-230C597BBA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46DD7A-6D68-48B4-9034-8A81155AB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -329,13 +329,33 @@
   </si>
   <si>
     <t>51011102,51011201,51011301</t>
+  </si>
+  <si>
+    <t>时装部件</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>FashionBase</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +587,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2827,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AF17"/>
+  <dimension ref="C1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2844,13 +2869,14 @@
     <col min="22" max="25" width="16.75" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="13.125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.125" customWidth="1"/>
-    <col min="31" max="31" width="52" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
+    <col min="33" max="33" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:32" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:33" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
@@ -2941,8 +2967,11 @@
       <c r="AF3" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="AG3" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
@@ -3033,8 +3062,11 @@
       <c r="AF4" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="AG4" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3125,8 +3157,11 @@
       <c r="AF5" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="AG5" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11">
         <v>1</v>
       </c>
@@ -3217,8 +3252,11 @@
       <c r="AF6" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="AG6" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="3:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11">
         <v>2</v>
       </c>
@@ -3309,8 +3347,11 @@
       <c r="AF7" s="12" t="s">
         <v>66</v>
       </c>
+      <c r="AG7" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -3320,7 +3361,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -3332,7 +3373,7 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46DD7A-6D68-48B4-9034-8A81155AB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467239B7-1504-40F5-B7CF-E456F02B90D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{BDB3AA00-4550-4ED4-BEAE-40C1ECE29A69}">
@@ -53,12 +54,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH3" authorId="1" shapeId="0" xr:uid="{7479D8A4-F724-4785-A866-07DF2B7AEFF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最后一个技能为觉醒技能</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -348,6 +375,18 @@
   </si>
   <si>
     <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒技能</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>JueXingSkill</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>69011001,69011002,69011003,69011004,69011005,69011006,69011101,70403003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2852,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AG17"/>
+  <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,12 +2910,13 @@
     <col min="30" max="30" width="13.125" customWidth="1"/>
     <col min="31" max="31" width="23" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
-    <col min="33" max="33" width="25.625" customWidth="1"/>
+    <col min="33" max="33" width="42.375" customWidth="1"/>
+    <col min="34" max="34" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:34" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
@@ -2970,8 +3010,11 @@
       <c r="AG3" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="AH3" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
@@ -3065,8 +3108,11 @@
       <c r="AG4" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="AH4" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3160,8 +3206,11 @@
       <c r="AG5" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="AH5" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11">
         <v>1</v>
       </c>
@@ -3255,8 +3304,11 @@
       <c r="AG6" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="AH6" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11">
         <v>2</v>
       </c>
@@ -3350,8 +3402,11 @@
       <c r="AG7" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="AH7" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -3361,7 +3416,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -3373,7 +3428,7 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.2">
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467239B7-1504-40F5-B7CF-E456F02B90D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097770D9-7F02-4003-A2C6-2B8C9EF7F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
-    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{BDB3AA00-4550-4ED4-BEAE-40C1ECE29A69}">
@@ -54,38 +53,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH3" authorId="1" shapeId="0" xr:uid="{7479D8A4-F724-4785-A866-07DF2B7AEFF5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最后一个技能为觉醒技能</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -375,18 +348,6 @@
   </si>
   <si>
     <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒技能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>JueXingSkill</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>69011001,69011002,69011003,69011004,69011005,69011006,69011101,70403003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2891,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AH17"/>
+  <dimension ref="C1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2911,12 +2872,11 @@
     <col min="31" max="31" width="23" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="42.375" customWidth="1"/>
-    <col min="34" max="34" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:34" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:33" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
@@ -3010,11 +2970,8 @@
       <c r="AG3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AH3" s="9" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
@@ -3108,11 +3065,8 @@
       <c r="AG4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AH4" s="9" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3206,11 +3160,8 @@
       <c r="AG5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AH5" s="9" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11">
         <v>1</v>
       </c>
@@ -3304,11 +3255,8 @@
       <c r="AG6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="12" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11">
         <v>2</v>
       </c>
@@ -3402,11 +3350,8 @@
       <c r="AG7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AH7" s="12" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="11" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -3416,7 +3361,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -3428,7 +3373,7 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="16" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097770D9-7F02-4003-A2C6-2B8C9EF7F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FC585-04DF-4199-8011-F3976D9B4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -349,6 +349,18 @@
   <si>
     <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>69060100,69060200,69060300,69060400,69060500,69060600,69060700,69060800</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础技能</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseSkill</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2084,7 +2096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2131,6 +2143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="34" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,9 +2547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2572,9 +2587,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2607,26 +2622,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2659,26 +2657,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2852,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AG17"/>
+  <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2872,11 +2853,12 @@
     <col min="31" max="31" width="23" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="42.375" customWidth="1"/>
+    <col min="34" max="34" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:34" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
@@ -2970,8 +2952,11 @@
       <c r="AG3" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="AH3" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
@@ -3065,8 +3050,11 @@
       <c r="AG4" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="AH4" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3160,8 +3148,11 @@
       <c r="AG5" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="AH5" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11">
         <v>1</v>
       </c>
@@ -3255,8 +3246,11 @@
       <c r="AG6" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="AH6" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="3:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11">
         <v>2</v>
       </c>
@@ -3350,8 +3344,11 @@
       <c r="AG7" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="AH7" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
@@ -3361,7 +3358,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
@@ -3373,7 +3370,7 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.2">
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FC585-04DF-4199-8011-F3976D9B4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA678D-4B1B-4D1D-ADBD-E6FD635D8720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -361,6 +361,10 @@
   <si>
     <t>BaseSkill</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2835,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3345,6 +3349,104 @@
         <v>72</v>
       </c>
       <c r="AH7" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3750</v>
+      </c>
+      <c r="H8" s="6">
+        <v>350</v>
+      </c>
+      <c r="I8" s="6">
+        <v>700</v>
+      </c>
+      <c r="J8" s="6">
+        <v>75</v>
+      </c>
+      <c r="K8" s="6">
+        <v>120</v>
+      </c>
+      <c r="L8" s="6">
+        <v>75</v>
+      </c>
+      <c r="M8" s="6">
+        <v>120</v>
+      </c>
+      <c r="N8" s="6">
+        <v>5</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>250</v>
+      </c>
+      <c r="V8" s="7">
+        <v>12</v>
+      </c>
+      <c r="W8" s="7">
+        <v>12</v>
+      </c>
+      <c r="X8" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>50000201</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="18" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA678D-4B1B-4D1D-ADBD-E6FD635D8720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BADC1CA-B3D3-4CF2-978A-1117E2B27615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>1002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -364,6 +360,14 @@
   </si>
   <si>
     <t>猎人</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_3</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2551,9 +2555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2591,9 +2595,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2626,9 +2630,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2661,9 +2682,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2839,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2957,7 +2995,7 @@
         <v>69</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3055,7 +3093,7 @@
         <v>70</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,10 +3286,10 @@
         <v>65</v>
       </c>
       <c r="AG6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3265,7 +3303,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
         <v>3750</v>
@@ -3345,11 +3383,9 @@
       <c r="AF7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="AG7" s="12"/>
       <c r="AH7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3357,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -3444,10 +3480,10 @@
         <v>66</v>
       </c>
       <c r="AG8" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:34" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BADC1CA-B3D3-4CF2-978A-1117E2B27615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6C233F-5D00-4587-B593-775FFBBBD709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1004,2003,2002,1001,3001,3002,1003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2555,9 +2559,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2595,9 +2599,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2630,26 +2634,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2682,26 +2669,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2877,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3303,7 +3273,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>3750</v>
@@ -3383,7 +3353,9 @@
       <c r="AF7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="12"/>
+      <c r="AG7" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="AH7" s="18" t="s">
         <v>73</v>
       </c>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E348260-4CBB-4962-AA1F-107C0F9D3B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DED9C5-877E-48A0-AE19-6CF92BE87B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2273,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2624,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O6" s="13">
         <v>0.05</v>
@@ -2722,7 +2722,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O7" s="13">
         <v>0.05</v>
@@ -2820,7 +2820,7 @@
         <v>120</v>
       </c>
       <c r="N8" s="13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O8" s="13">
         <v>0.05</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DED9C5-877E-48A0-AE19-6CF92BE87B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC049C21-29D6-4D1C-A80F-FB15597A0B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,172 +142,174 @@
     <t>初始化普通攻击</t>
   </si>
   <si>
+    <t>转职ID</t>
+  </si>
+  <si>
+    <t>时装部件</t>
+  </si>
+  <si>
+    <t>基础技能</t>
+  </si>
+  <si>
+    <t>OccupationName</t>
+  </si>
+  <si>
+    <t>ModelAsset</t>
+  </si>
+  <si>
+    <t>ChangeEquip</t>
+  </si>
+  <si>
+    <t>BaseHp</t>
+  </si>
+  <si>
+    <t>BaseMinAct</t>
+  </si>
+  <si>
+    <t>BaseMaxAct</t>
+  </si>
+  <si>
+    <t>BaseMinDef</t>
+  </si>
+  <si>
+    <t>BaseMaxDef</t>
+  </si>
+  <si>
+    <t>BaseMinAdf</t>
+  </si>
+  <si>
+    <t>BaseMaxAdf</t>
+  </si>
+  <si>
+    <t>BaseMoveSpeed</t>
+  </si>
+  <si>
+    <t>BaseCri</t>
+  </si>
+  <si>
+    <t>BaseHit</t>
+  </si>
+  <si>
+    <t>BaseDodge</t>
+  </si>
+  <si>
+    <t>BaseDefAdd</t>
+  </si>
+  <si>
+    <t>BaseAdfAdd</t>
+  </si>
+  <si>
+    <t>DamgeAdd</t>
+  </si>
+  <si>
+    <t>LvUpHp</t>
+  </si>
+  <si>
+    <t>LvUpMinAct</t>
+  </si>
+  <si>
+    <t>LvUpMaxAct</t>
+  </si>
+  <si>
+    <t>LvUpMinMagAct</t>
+  </si>
+  <si>
+    <t>LvUpMaxMagAct</t>
+  </si>
+  <si>
+    <t>LvUpMinDef</t>
+  </si>
+  <si>
+    <t>LvUpMaxDef</t>
+  </si>
+  <si>
+    <t>LvUpMinAdf</t>
+  </si>
+  <si>
+    <t>LvUpMaxAdf</t>
+  </si>
+  <si>
+    <t>InitActSkillID</t>
+  </si>
+  <si>
+    <t>InitSkillID</t>
+  </si>
+  <si>
+    <t>OccTwoID</t>
+  </si>
+  <si>
+    <t>FashionBase</t>
+  </si>
+  <si>
+    <t>BaseSkill</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>Hero_1</t>
+  </si>
+  <si>
+    <t>51011102,51011201,51011301</t>
+  </si>
+  <si>
+    <t>101,102,103</t>
+  </si>
+  <si>
+    <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
+  </si>
+  <si>
+    <t>69060100,69060200,69060300,69060400,69060500,69060600,69060700,69060800</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>Hero_2</t>
+  </si>
+  <si>
+    <t>201,202,203</t>
+  </si>
+  <si>
+    <t>1002,1004,2003,2002,1001,3001,3002,1003</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>Hero_3</t>
+  </si>
+  <si>
+    <t>53011102,53011201,53011301</t>
+  </si>
+  <si>
+    <t>301,302,303</t>
+  </si>
+  <si>
+    <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
+  </si>
+  <si>
     <t>初始化技能ID</t>
-  </si>
-  <si>
-    <t>转职ID</t>
-  </si>
-  <si>
-    <t>时装部件</t>
-  </si>
-  <si>
-    <t>基础技能</t>
-  </si>
-  <si>
-    <t>OccupationName</t>
-  </si>
-  <si>
-    <t>ModelAsset</t>
-  </si>
-  <si>
-    <t>ChangeEquip</t>
-  </si>
-  <si>
-    <t>BaseHp</t>
-  </si>
-  <si>
-    <t>BaseMinAct</t>
-  </si>
-  <si>
-    <t>BaseMaxAct</t>
-  </si>
-  <si>
-    <t>BaseMinDef</t>
-  </si>
-  <si>
-    <t>BaseMaxDef</t>
-  </si>
-  <si>
-    <t>BaseMinAdf</t>
-  </si>
-  <si>
-    <t>BaseMaxAdf</t>
-  </si>
-  <si>
-    <t>BaseMoveSpeed</t>
-  </si>
-  <si>
-    <t>BaseCri</t>
-  </si>
-  <si>
-    <t>BaseHit</t>
-  </si>
-  <si>
-    <t>BaseDodge</t>
-  </si>
-  <si>
-    <t>BaseDefAdd</t>
-  </si>
-  <si>
-    <t>BaseAdfAdd</t>
-  </si>
-  <si>
-    <t>DamgeAdd</t>
-  </si>
-  <si>
-    <t>LvUpHp</t>
-  </si>
-  <si>
-    <t>LvUpMinAct</t>
-  </si>
-  <si>
-    <t>LvUpMaxAct</t>
-  </si>
-  <si>
-    <t>LvUpMinMagAct</t>
-  </si>
-  <si>
-    <t>LvUpMaxMagAct</t>
-  </si>
-  <si>
-    <t>LvUpMinDef</t>
-  </si>
-  <si>
-    <t>LvUpMaxDef</t>
-  </si>
-  <si>
-    <t>LvUpMinAdf</t>
-  </si>
-  <si>
-    <t>LvUpMaxAdf</t>
-  </si>
-  <si>
-    <t>InitActSkillID</t>
-  </si>
-  <si>
-    <t>InitSkillID</t>
-  </si>
-  <si>
-    <t>OccTwoID</t>
-  </si>
-  <si>
-    <t>FashionBase</t>
-  </si>
-  <si>
-    <t>BaseSkill</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>Hero_1</t>
-  </si>
-  <si>
-    <t>51011102,51011201,51011301</t>
-  </si>
-  <si>
-    <t>101,102,103</t>
-  </si>
-  <si>
-    <t>1002,1004,2001,2002,1001,3001,3002,1003</t>
-  </si>
-  <si>
-    <t>69060100,69060200,69060300,69060400,69060500,69060600,69060700,69060800</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>Hero_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>52011102,52011201,52011301</t>
-  </si>
-  <si>
-    <t>201,202,203</t>
-  </si>
-  <si>
-    <t>1002,1004,2003,2002,1001,3001,3002,1003</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>Hero_3</t>
-  </si>
-  <si>
-    <t>53011102,53011201,53011301</t>
-  </si>
-  <si>
-    <t>301,302,303</t>
-  </si>
-  <si>
-    <t>1002,1004,2002,1001,3001,3002,1003,2003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1576,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1626,6 +1628,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2273,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2380,17 +2385,17 @@
       <c r="AD3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2398,195 +2403,195 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="U5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="AF5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="AG5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="AH5" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2594,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -2675,16 +2680,16 @@
         <v>50000101</v>
       </c>
       <c r="AE6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AG6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AH6" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,10 +2697,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -2773,16 +2778,16 @@
         <v>50000201</v>
       </c>
       <c r="AE7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG7" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="AH7" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2871,16 +2876,16 @@
         <v>50000301</v>
       </c>
       <c r="AE8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="AH8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="3:34" x14ac:dyDescent="0.2">

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -261,7 +261,7 @@
     <t>101,102,103</t>
   </si>
   <si>
-    <t>1001,2001,3001</t>
+    <t>10001000,10002000,10003000</t>
   </si>
   <si>
     <t>69060100,69060200,69060300,69060400,69060500,69060600,69060700,69060800</t>
@@ -279,6 +279,9 @@
     <t>201,202,203</t>
   </si>
   <si>
+    <t>20001000,20002000,20003000</t>
+  </si>
+  <si>
     <t>猎人</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
   </si>
   <si>
     <t>301,302,303</t>
+  </si>
+  <si>
+    <t>30001000,30002000,30003000</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,19 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -511,7 +504,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,48 +748,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,933 +1128,933 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2547,7 +2498,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{9F0A262A-2C68-4B41-8C8E-232BA022A5CC}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{52E20F56-9E80-4012-95ED-942B34097A01}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2850,7 +2801,7 @@
   <dimension ref="C1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3355,7 +3306,7 @@
         <v>71</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH7" s="17" t="s">
         <v>67</v>
@@ -3366,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -3447,13 +3398,13 @@
         <v>50000301</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="17" t="s">
         <v>67</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EF58F9-8DC3-47F9-9E77-2BB09D5D3B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -295,19 +288,25 @@
   </si>
   <si>
     <t>30001000,30002000,30003000</t>
+  </si>
+  <si>
+    <t>唤魔者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>54011102,54011201,54011301</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>401,402,403</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,150 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -503,8 +358,27 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,222 +411,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -810,7 +540,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +552,10 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,7 +570,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,7 +593,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -898,576 +628,121 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1527,289 +802,517 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1934,7 +1437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2058,20 +1561,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,390 +1598,345 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
-    <cellStyle name="常规 2" xfId="277"/>
-    <cellStyle name="常规 2 2" xfId="278"/>
-    <cellStyle name="常规 2 3" xfId="279"/>
-    <cellStyle name="常规 2 3 2" xfId="280"/>
-    <cellStyle name="常规 2 3 2 2" xfId="281"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
-    <cellStyle name="常规 2 3 2 3" xfId="291"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
-    <cellStyle name="常规 2 3 2 4" xfId="294"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
-    <cellStyle name="常规 2 3 2 5" xfId="296"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
-    <cellStyle name="常规 2 3 2 6" xfId="298"/>
-    <cellStyle name="常规 2 3 2 7" xfId="299"/>
-    <cellStyle name="常规 2 3 3" xfId="300"/>
-    <cellStyle name="常规 2 3 3 2" xfId="301"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
-    <cellStyle name="常规 2 3 3 3" xfId="304"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
-    <cellStyle name="常规 2 3 3 4" xfId="306"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
-    <cellStyle name="常规 2 3 3 5" xfId="308"/>
-    <cellStyle name="常规 2 3 3 6" xfId="309"/>
-    <cellStyle name="常规 2 3 4" xfId="310"/>
-    <cellStyle name="常规 2 3 4 2" xfId="311"/>
-    <cellStyle name="常规 2 3 4 3" xfId="312"/>
-    <cellStyle name="常规 2 3 5" xfId="313"/>
-    <cellStyle name="常规 2 3 5 2" xfId="314"/>
-    <cellStyle name="常规 2 3 6" xfId="315"/>
-    <cellStyle name="常规 2 3 6 2" xfId="316"/>
-    <cellStyle name="常规 2 3 7" xfId="317"/>
-    <cellStyle name="常规 2 3 8" xfId="318"/>
-    <cellStyle name="常规 3" xfId="319"/>
-    <cellStyle name="常规 4" xfId="320"/>
-    <cellStyle name="常规 5" xfId="321"/>
-    <cellStyle name="常规 5 2" xfId="322"/>
-    <cellStyle name="常规 5 2 2" xfId="323"/>
-    <cellStyle name="常规 5 2 2 2" xfId="324"/>
-    <cellStyle name="常规 5 2 2 3" xfId="325"/>
-    <cellStyle name="常规 5 2 3" xfId="326"/>
-    <cellStyle name="常规 5 2 3 2" xfId="327"/>
-    <cellStyle name="常规 5 2 4" xfId="328"/>
-    <cellStyle name="常规 5 2 4 2" xfId="329"/>
-    <cellStyle name="常规 5 2 5" xfId="330"/>
-    <cellStyle name="常规 5 2 6" xfId="331"/>
-    <cellStyle name="常规 5 3" xfId="332"/>
-    <cellStyle name="常规 5 3 2" xfId="333"/>
-    <cellStyle name="常规 5 3 3" xfId="334"/>
-    <cellStyle name="常规 5 4" xfId="335"/>
-    <cellStyle name="常规 5 4 2" xfId="336"/>
-    <cellStyle name="常规 5 5" xfId="337"/>
-    <cellStyle name="常规 5 5 2" xfId="338"/>
-    <cellStyle name="常规 5 6" xfId="339"/>
-    <cellStyle name="常规 5 7" xfId="340"/>
-    <cellStyle name="常规 6" xfId="341"/>
-    <cellStyle name="注释 2" xfId="342"/>
-    <cellStyle name="注释 2 2" xfId="343"/>
-    <cellStyle name="注释 2 2 2" xfId="344"/>
-    <cellStyle name="注释 2 2 2 2" xfId="345"/>
-    <cellStyle name="注释 2 2 2 3" xfId="346"/>
-    <cellStyle name="注释 2 2 3" xfId="347"/>
-    <cellStyle name="注释 2 2 3 2" xfId="348"/>
-    <cellStyle name="注释 2 2 4" xfId="349"/>
-    <cellStyle name="注释 2 2 4 2" xfId="350"/>
-    <cellStyle name="注释 2 2 5" xfId="351"/>
-    <cellStyle name="注释 2 2 6" xfId="352"/>
-    <cellStyle name="注释 2 3" xfId="353"/>
-    <cellStyle name="注释 2 3 2" xfId="354"/>
-    <cellStyle name="注释 2 3 3" xfId="355"/>
-    <cellStyle name="注释 2 4" xfId="356"/>
-    <cellStyle name="注释 2 4 2" xfId="357"/>
-    <cellStyle name="注释 2 5" xfId="358"/>
-    <cellStyle name="注释 2 5 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 2 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 2 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 5" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 5 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 5 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 5 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="注释 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="注释 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="注释 2 2 4" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 3 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 5" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2506,6 +1964,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2792,19 +2253,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="6" width="15.125" customWidth="1"/>
@@ -2817,12 +2278,12 @@
     <col min="31" max="31" width="35.625" customWidth="1"/>
     <col min="32" max="32" width="15.875" customWidth="1"/>
     <col min="33" max="33" width="42.375" customWidth="1"/>
-    <col min="34" max="34" width="43.875" customWidth="1"/>
+    <col min="34" max="34" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:34">
+    <row r="1" spans="3:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:34">
+    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +2479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:34">
+    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
@@ -3116,7 +2577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:34">
+    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -3201,20 +2662,20 @@
       <c r="AD6" s="12">
         <v>50000101</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AF6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AG6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:34">
+    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -3299,20 +2760,20 @@
       <c r="AD7" s="12">
         <v>50000201</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF7" s="16" t="s">
+      <c r="AF7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:34">
+    <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>3</v>
       </c>
@@ -3397,20 +2858,118 @@
       <c r="AD8" s="12">
         <v>50000301</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AH8" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="20:29">
+    <row r="9" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3750</v>
+      </c>
+      <c r="H9" s="11">
+        <v>350</v>
+      </c>
+      <c r="I9" s="11">
+        <v>700</v>
+      </c>
+      <c r="J9" s="11">
+        <v>75</v>
+      </c>
+      <c r="K9" s="11">
+        <v>120</v>
+      </c>
+      <c r="L9" s="11">
+        <v>75</v>
+      </c>
+      <c r="M9" s="11">
+        <v>120</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>250</v>
+      </c>
+      <c r="V9" s="12">
+        <v>12</v>
+      </c>
+      <c r="W9" s="12">
+        <v>12</v>
+      </c>
+      <c r="X9" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>50000201</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -3420,7 +2979,7 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
     </row>
-    <row r="12" spans="20:29">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
@@ -3432,16 +2991,16 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
     </row>
-    <row r="16" spans="23:23">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.2">
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="23:23">
+    <row r="17" spans="23:23" x14ac:dyDescent="0.2">
       <c r="W17" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>唤魔者</t>
+  </si>
+  <si>
+    <t>Hero_4</t>
   </si>
   <si>
     <t>54011102,54011201,54011301</t>
@@ -316,7 +319,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,13 +342,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,12 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -526,7 +516,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,48 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,1081 +996,1081 @@
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,9 +2101,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2165,12 +2110,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2181,12 +2120,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2577,7 +2510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{E8806CD6-6679-449E-A003-9A6ACE1E08FE}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{C3CAA0C0-D262-4110-ABBB-4D2117D51373}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2879,8 +2812,8 @@
   <sheetPr/>
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3235,28 +3168,28 @@
       <c r="O6" s="11">
         <v>0.05</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>0</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="12">
         <v>0</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <v>0</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <v>0</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>350</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="12">
         <v>12</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="12">
         <v>12</v>
       </c>
       <c r="X6" s="10">
@@ -3265,31 +3198,31 @@
       <c r="Y6" s="10">
         <v>0</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="12">
         <v>10</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="12">
         <v>10</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="12">
         <v>4</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="12">
         <v>4</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="12">
         <v>50000101</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AG6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3333,28 +3266,28 @@
       <c r="O7" s="11">
         <v>0.05</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>0</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>0</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>0</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>0</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>250</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>12</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <v>12</v>
       </c>
       <c r="X7" s="10">
@@ -3363,31 +3296,31 @@
       <c r="Y7" s="10">
         <v>3</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>4</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="12">
         <v>4</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="12">
         <v>6</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <v>6</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
         <v>50000201</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AE7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AF7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3431,28 +3364,28 @@
       <c r="O8" s="11">
         <v>0.05</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>0</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="12">
         <v>0</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>0</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>0</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>250</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>12</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="12">
         <v>12</v>
       </c>
       <c r="X8" s="10">
@@ -3461,31 +3394,31 @@
       <c r="Y8" s="10">
         <v>3</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="12">
         <v>4</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="12">
         <v>4</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="12">
         <v>6</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="12">
         <v>6</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="12">
         <v>50000301</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AE8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AF8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AG8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3493,11 +3426,11 @@
       <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -3529,28 +3462,28 @@
       <c r="O9" s="11">
         <v>0.05</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <v>0</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <v>0</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <v>250</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <v>12</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="12">
         <v>12</v>
       </c>
       <c r="X9" s="10">
@@ -3559,61 +3492,61 @@
       <c r="Y9" s="10">
         <v>3</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="12">
         <v>4</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="12">
         <v>4</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="12">
         <v>6</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="12">
         <v>6</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="12">
         <v>50000201</v>
       </c>
-      <c r="AE9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AE9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AF9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AH9" s="20" t="s">
+      <c r="AH9" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="20:29">
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="20:29">
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
     </row>
     <row r="16" spans="23:23">
-      <c r="W16" s="14"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="23:23">
-      <c r="W17" s="14"/>
+      <c r="W17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -2813,7 +2813,7 @@
   <dimension ref="C1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836E02A-A863-4C88-AF3D-9F74EEF99AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -47,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -312,14 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +319,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -337,12 +327,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -350,6 +342,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -357,166 +350,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,7 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,222 +412,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -822,7 +541,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +553,10 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,7 +571,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,7 +594,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -910,576 +629,121 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1539,289 +803,517 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1946,7 +1438,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2070,20 +1562,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="341" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="293" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2107,390 +1599,336 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
-    <cellStyle name="常规 2" xfId="277"/>
-    <cellStyle name="常规 2 2" xfId="278"/>
-    <cellStyle name="常规 2 3" xfId="279"/>
-    <cellStyle name="常规 2 3 2" xfId="280"/>
-    <cellStyle name="常规 2 3 2 2" xfId="281"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
-    <cellStyle name="常规 2 3 2 3" xfId="291"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
-    <cellStyle name="常规 2 3 2 4" xfId="294"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
-    <cellStyle name="常规 2 3 2 5" xfId="296"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
-    <cellStyle name="常规 2 3 2 6" xfId="298"/>
-    <cellStyle name="常规 2 3 2 7" xfId="299"/>
-    <cellStyle name="常规 2 3 3" xfId="300"/>
-    <cellStyle name="常规 2 3 3 2" xfId="301"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
-    <cellStyle name="常规 2 3 3 3" xfId="304"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
-    <cellStyle name="常规 2 3 3 4" xfId="306"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
-    <cellStyle name="常规 2 3 3 5" xfId="308"/>
-    <cellStyle name="常规 2 3 3 6" xfId="309"/>
-    <cellStyle name="常规 2 3 4" xfId="310"/>
-    <cellStyle name="常规 2 3 4 2" xfId="311"/>
-    <cellStyle name="常规 2 3 4 3" xfId="312"/>
-    <cellStyle name="常规 2 3 5" xfId="313"/>
-    <cellStyle name="常规 2 3 5 2" xfId="314"/>
-    <cellStyle name="常规 2 3 6" xfId="315"/>
-    <cellStyle name="常规 2 3 6 2" xfId="316"/>
-    <cellStyle name="常规 2 3 7" xfId="317"/>
-    <cellStyle name="常规 2 3 8" xfId="318"/>
-    <cellStyle name="常规 3" xfId="319"/>
-    <cellStyle name="常规 4" xfId="320"/>
-    <cellStyle name="常规 5" xfId="321"/>
-    <cellStyle name="常规 5 2" xfId="322"/>
-    <cellStyle name="常规 5 2 2" xfId="323"/>
-    <cellStyle name="常规 5 2 2 2" xfId="324"/>
-    <cellStyle name="常规 5 2 2 3" xfId="325"/>
-    <cellStyle name="常规 5 2 3" xfId="326"/>
-    <cellStyle name="常规 5 2 3 2" xfId="327"/>
-    <cellStyle name="常规 5 2 4" xfId="328"/>
-    <cellStyle name="常规 5 2 4 2" xfId="329"/>
-    <cellStyle name="常规 5 2 5" xfId="330"/>
-    <cellStyle name="常规 5 2 6" xfId="331"/>
-    <cellStyle name="常规 5 3" xfId="332"/>
-    <cellStyle name="常规 5 3 2" xfId="333"/>
-    <cellStyle name="常规 5 3 3" xfId="334"/>
-    <cellStyle name="常规 5 4" xfId="335"/>
-    <cellStyle name="常规 5 4 2" xfId="336"/>
-    <cellStyle name="常规 5 5" xfId="337"/>
-    <cellStyle name="常规 5 5 2" xfId="338"/>
-    <cellStyle name="常规 5 6" xfId="339"/>
-    <cellStyle name="常规 5 7" xfId="340"/>
-    <cellStyle name="常规 6" xfId="341"/>
-    <cellStyle name="注释 2" xfId="342"/>
-    <cellStyle name="注释 2 2" xfId="343"/>
-    <cellStyle name="注释 2 2 2" xfId="344"/>
-    <cellStyle name="注释 2 2 2 2" xfId="345"/>
-    <cellStyle name="注释 2 2 2 3" xfId="346"/>
-    <cellStyle name="注释 2 2 3" xfId="347"/>
-    <cellStyle name="注释 2 2 3 2" xfId="348"/>
-    <cellStyle name="注释 2 2 4" xfId="349"/>
-    <cellStyle name="注释 2 2 4 2" xfId="350"/>
-    <cellStyle name="注释 2 2 5" xfId="351"/>
-    <cellStyle name="注释 2 2 6" xfId="352"/>
-    <cellStyle name="注释 2 3" xfId="353"/>
-    <cellStyle name="注释 2 3 2" xfId="354"/>
-    <cellStyle name="注释 2 3 3" xfId="355"/>
-    <cellStyle name="注释 2 4" xfId="356"/>
-    <cellStyle name="注释 2 4 2" xfId="357"/>
-    <cellStyle name="注释 2 5" xfId="358"/>
-    <cellStyle name="注释 2 5 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 2 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 2 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 5" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 5 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 5 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 5 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="注释 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="注释 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="注释 2 2 4" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 3 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 5" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2518,6 +1956,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2804,19 +2245,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="6" width="15.125" customWidth="1"/>
@@ -2832,9 +2273,9 @@
     <col min="34" max="34" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:34">
+    <row r="1" spans="3:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:34">
+    <row r="4" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +2471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:34">
+    <row r="5" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +2569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:34">
+    <row r="6" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -3213,20 +2654,20 @@
       <c r="AD6" s="12">
         <v>50000101</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AF6" s="16" t="s">
+      <c r="AF6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AG6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:34">
+    <row r="7" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -3311,20 +2752,20 @@
       <c r="AD7" s="12">
         <v>50000201</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AF7" s="16" t="s">
+      <c r="AF7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AG7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:34">
+    <row r="8" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>3</v>
       </c>
@@ -3409,20 +2850,20 @@
       <c r="AD8" s="12">
         <v>50000301</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="17" t="s">
+      <c r="AH8" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:34">
+    <row r="9" spans="3:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>4</v>
       </c>
@@ -3505,22 +2946,22 @@
         <v>6</v>
       </c>
       <c r="AD9" s="12">
-        <v>50000201</v>
-      </c>
-      <c r="AE9" s="18" t="s">
+        <v>50000401</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF9" s="16" t="s">
+      <c r="AF9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AG9" s="16" t="s">
+      <c r="AG9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AH9" s="17" t="s">
+      <c r="AH9" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="20:29">
+    <row r="11" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -3530,7 +2971,7 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
     </row>
-    <row r="12" spans="20:29">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.2">
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
@@ -3542,16 +2983,16 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
     </row>
-    <row r="16" spans="23:23">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.2">
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="23:23">
+    <row r="17" spans="23:23" x14ac:dyDescent="0.2">
       <c r="W17" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836E02A-A863-4C88-AF3D-9F74EEF99AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC0167-BABD-47AD-A3CE-041155DA168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2874,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11">
         <v>3750</v>

--- a/Excel/OccupationConfig.xlsx
+++ b/Excel/OccupationConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC0167-BABD-47AD-A3CE-041155DA168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C33FB1-D564-4D68-8FFA-ED5065E3B291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationConfig" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>401,402,403</t>
+  </si>
+  <si>
+    <t>40001000,40002000,40003000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2253,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2955,7 +2959,7 @@
         <v>81</v>
       </c>
       <c r="AG9" s="14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>67</v>
